--- a/data_processed/20250731/BTCUSDVOLSURFACE_20250731.xlsx
+++ b/data_processed/20250731/BTCUSDVOLSURFACE_20250731.xlsx
@@ -1549,7 +1549,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7335,7 +7335,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7522,7 +7522,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7688,7 +7688,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -18976,7 +18976,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19034,7 +19034,7 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19063,7 +19063,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19092,7 +19092,7 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250731/BTCUSDVOLSURFACE_20250731.xlsx
+++ b/data_processed/20250731/BTCUSDVOLSURFACE_20250731.xlsx
@@ -1549,7 +1549,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -7335,7 +7335,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -7522,7 +7522,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -7688,7 +7688,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -18976,7 +18976,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19034,7 +19034,7 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19063,7 +19063,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19092,7 +19092,7 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
